--- a/map/mundo.xlsx
+++ b/map/mundo.xlsx
@@ -396,8 +396,8 @@
   </sheetPr>
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V33" activeCellId="0" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/map/mundo.xlsx
+++ b/map/mundo.xlsx
@@ -396,8 +396,8 @@
   </sheetPr>
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V33" activeCellId="0" sqref="V33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/map/mundo.xlsx
+++ b/map/mundo.xlsx
@@ -394,10 +394,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR44"/>
+  <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AS8" activeCellId="0" sqref="AS8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AR43" activeCellId="0" sqref="AR1:AR43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -532,9 +532,6 @@
       <c r="AQ1" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="AR1" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -666,9 +663,6 @@
       <c r="AQ2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR2" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -800,9 +794,6 @@
       <c r="AQ3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR3" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -934,9 +925,6 @@
       <c r="AQ4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR4" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -1068,9 +1056,6 @@
       <c r="AQ5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR5" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -1202,9 +1187,6 @@
       <c r="AQ6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR6" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -1336,9 +1318,6 @@
       <c r="AQ7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR7" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -1470,9 +1449,6 @@
       <c r="AQ8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR8" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -1604,9 +1580,6 @@
       <c r="AQ9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR9" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -1738,9 +1711,6 @@
       <c r="AQ10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR10" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -1872,9 +1842,6 @@
       <c r="AQ11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR11" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -2006,9 +1973,6 @@
       <c r="AQ12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR12" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -2140,9 +2104,6 @@
       <c r="AQ13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR13" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -2274,9 +2235,6 @@
       <c r="AQ14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR14" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -2408,9 +2366,6 @@
       <c r="AQ15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AR15" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -2542,9 +2497,6 @@
       <c r="AQ16" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR16" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -2676,9 +2628,6 @@
       <c r="AQ17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR17" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -2810,9 +2759,6 @@
       <c r="AQ18" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR18" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -2944,9 +2890,6 @@
       <c r="AQ19" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR19" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -3078,9 +3021,6 @@
       <c r="AQ20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR20" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -3212,9 +3152,6 @@
       <c r="AQ21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR21" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -3346,9 +3283,6 @@
       <c r="AQ22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR22" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -3480,9 +3414,6 @@
       <c r="AQ23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR23" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -3614,9 +3545,6 @@
       <c r="AQ24" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR24" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -3748,9 +3676,6 @@
       <c r="AQ25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR25" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -3882,9 +3807,6 @@
       <c r="AQ26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR26" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -4016,9 +3938,6 @@
       <c r="AQ27" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR27" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -4150,9 +4069,6 @@
       <c r="AQ28" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR28" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -4284,9 +4200,6 @@
       <c r="AQ29" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR29" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -4418,9 +4331,6 @@
       <c r="AQ30" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR30" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -4552,9 +4462,6 @@
       <c r="AQ31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR31" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -4686,9 +4593,6 @@
       <c r="AQ32" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR32" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -4820,9 +4724,6 @@
       <c r="AQ33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR33" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -4954,9 +4855,6 @@
       <c r="AQ34" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR34" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -5088,9 +4986,6 @@
       <c r="AQ35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR35" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -5222,9 +5117,6 @@
       <c r="AQ36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR36" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -5356,9 +5248,6 @@
       <c r="AQ37" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR37" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -5490,9 +5379,6 @@
       <c r="AQ38" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR38" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -5624,9 +5510,6 @@
       <c r="AQ39" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR39" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -5758,9 +5641,6 @@
       <c r="AQ40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR40" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -5892,9 +5772,6 @@
       <c r="AQ41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR41" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -6026,9 +5903,6 @@
       <c r="AQ42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR42" s="1" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -6159,143 +6033,6 @@
       </c>
       <c r="AQ43" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="AR43" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AH44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AI44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AJ44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AK44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AL44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AM44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AN44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AP44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ44" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AR44" s="1" t="n">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
